--- a/reports/abnormal_table_20251231.xlsx
+++ b/reports/abnormal_table_20251231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,33 +553,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>台化</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>台新</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-368</v>
+        <v>218</v>
       </c>
       <c r="E4" t="n">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="F4" t="n">
-        <v>673</v>
+        <v>176</v>
       </c>
       <c r="G4" t="n">
-        <v>1.770212765957447</v>
+        <v>3.040579710144927</v>
       </c>
       <c r="H4" t="n">
-        <v>96.31282701380141</v>
+        <v>145.843830061833</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -588,33 +588,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>台化</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>國泰證券</t>
+          <t>台灣企銀-嘉義</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-368</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="F5" t="n">
-        <v>673</v>
+        <v>402</v>
       </c>
       <c r="G5" t="n">
-        <v>1.770212765957447</v>
+        <v>3.040579710144927</v>
       </c>
       <c r="H5" t="n">
-        <v>96.31282701380141</v>
+        <v>145.843830061833</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -623,33 +623,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>台化</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>富邦-永康</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-288</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>300</v>
+        <v>626</v>
       </c>
       <c r="F6" t="n">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="G6" t="n">
-        <v>1.770212765957447</v>
+        <v>3.040579710144927</v>
       </c>
       <c r="H6" t="n">
-        <v>96.31282701380141</v>
+        <v>145.843830061833</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>213</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51063829787234</v>
+        <v>1.8125</v>
       </c>
       <c r="H7" t="n">
-        <v>32.58892339192241</v>
+        <v>32.3081283824128</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>1318</v>
       </c>
       <c r="G8" t="n">
-        <v>4.523364485981308</v>
+        <v>4.437888198757764</v>
       </c>
       <c r="H8" t="n">
-        <v>88.11356441345944</v>
+        <v>87.98115165189469</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>673</v>
       </c>
       <c r="G9" t="n">
-        <v>14.97674418604651</v>
+        <v>14.15909090909091</v>
       </c>
       <c r="H9" t="n">
-        <v>140.9377586995143</v>
+        <v>139.3948621357761</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -786,10 +786,10 @@
         <v>8306</v>
       </c>
       <c r="G10" t="n">
-        <v>17.46365914786967</v>
+        <v>17.74504950495049</v>
       </c>
       <c r="H10" t="n">
-        <v>663.679592170016</v>
+        <v>659.5843580692884</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>8306</v>
       </c>
       <c r="G11" t="n">
-        <v>17.46365914786967</v>
+        <v>17.74504950495049</v>
       </c>
       <c r="H11" t="n">
-        <v>663.679592170016</v>
+        <v>659.5843580692884</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -891,10 +891,10 @@
         <v>274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4972067039106145</v>
+        <v>0.6759776536312849</v>
       </c>
       <c r="H13" t="n">
-        <v>27.58813747305741</v>
+        <v>27.55170896470675</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -903,33 +903,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>中環</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>元大-清水</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5380</v>
+        <v>479</v>
       </c>
       <c r="F14" t="n">
-        <v>5380</v>
+        <v>479</v>
       </c>
       <c r="G14" t="n">
-        <v>5.952857142857143</v>
+        <v>-0.2962962962962963</v>
       </c>
       <c r="H14" t="n">
-        <v>435.7226176033438</v>
+        <v>87.5854780541042</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>1529</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4087837837837838</v>
+        <v>-0.2962962962962963</v>
       </c>
       <c r="H15" t="n">
-        <v>87.03662850917777</v>
+        <v>87.5854780541042</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -996,10 +996,10 @@
         <v>1444</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3189368770764119</v>
+        <v>1.34640522875817</v>
       </c>
       <c r="H16" t="n">
-        <v>167.1484308637067</v>
+        <v>168.811790446025</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>1205</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3189368770764119</v>
+        <v>1.34640522875817</v>
       </c>
       <c r="H17" t="n">
-        <v>167.1484308637067</v>
+        <v>168.811790446025</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>8463</v>
       </c>
       <c r="G18" t="n">
-        <v>17.81376518218623</v>
+        <v>17.72635814889336</v>
       </c>
       <c r="H18" t="n">
-        <v>566.102856332722</v>
+        <v>564.3986965601946</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>8463</v>
       </c>
       <c r="G19" t="n">
-        <v>17.81376518218623</v>
+        <v>17.72635814889336</v>
       </c>
       <c r="H19" t="n">
-        <v>566.102856332722</v>
+        <v>564.3986965601946</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1136,10 +1136,10 @@
         <v>568</v>
       </c>
       <c r="G20" t="n">
-        <v>1.923076923076923</v>
+        <v>1.678082191780822</v>
       </c>
       <c r="H20" t="n">
-        <v>56.8924209565462</v>
+        <v>56.33078841267179</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1171,10 +1171,10 @@
         <v>1723</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5870206489675516</v>
+        <v>-0.6264705882352941</v>
       </c>
       <c r="H21" t="n">
-        <v>268.3379712476163</v>
+        <v>267.943548196173</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1206,10 +1206,10 @@
         <v>4200</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5870206489675516</v>
+        <v>-0.6264705882352941</v>
       </c>
       <c r="H22" t="n">
-        <v>268.3379712476163</v>
+        <v>267.943548196173</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         <v>75</v>
       </c>
       <c r="G23" t="n">
-        <v>3.850746268656716</v>
+        <v>3.060606060606061</v>
       </c>
       <c r="H23" t="n">
-        <v>41.9195671861126</v>
+        <v>41.7350171320398</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1276,10 +1276,10 @@
         <v>228</v>
       </c>
       <c r="G24" t="n">
-        <v>6.396551724137931</v>
+        <v>6.661016949152542</v>
       </c>
       <c r="H24" t="n">
-        <v>57.9781990652362</v>
+        <v>57.51210072656421</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1311,10 +1311,10 @@
         <v>208</v>
       </c>
       <c r="G25" t="n">
-        <v>6.396551724137931</v>
+        <v>6.661016949152542</v>
       </c>
       <c r="H25" t="n">
-        <v>57.9781990652362</v>
+        <v>57.51210072656421</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1416,10 +1416,10 @@
         <v>454</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.336996336996337</v>
+        <v>-0.2635379061371841</v>
       </c>
       <c r="H28" t="n">
-        <v>42.30739211662124</v>
+        <v>42.02741348857099</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1451,10 +1451,10 @@
         <v>304</v>
       </c>
       <c r="G29" t="n">
-        <v>3.948979591836735</v>
+        <v>3.930693069306931</v>
       </c>
       <c r="H29" t="n">
-        <v>50.68873529242933</v>
+        <v>49.96624008783182</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1486,10 +1486,10 @@
         <v>304</v>
       </c>
       <c r="G30" t="n">
-        <v>3.948979591836735</v>
+        <v>3.930693069306931</v>
       </c>
       <c r="H30" t="n">
-        <v>50.68873529242933</v>
+        <v>49.96624008783182</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1556,10 +1556,10 @@
         <v>440</v>
       </c>
       <c r="G32" t="n">
-        <v>0.35</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="H32" t="n">
-        <v>74.47047450048271</v>
+        <v>74.29290748439229</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1591,10 +1591,10 @@
         <v>345</v>
       </c>
       <c r="G33" t="n">
-        <v>0.35</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="H33" t="n">
-        <v>74.47047450048271</v>
+        <v>74.29290748439229</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1626,10 +1626,10 @@
         <v>1950</v>
       </c>
       <c r="G34" t="n">
-        <v>13.390625</v>
+        <v>14.109375</v>
       </c>
       <c r="H34" t="n">
-        <v>331.5559574590499</v>
+        <v>331.5763273563045</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -1661,10 +1661,10 @@
         <v>1195</v>
       </c>
       <c r="G35" t="n">
-        <v>13.390625</v>
+        <v>14.109375</v>
       </c>
       <c r="H35" t="n">
-        <v>331.5559574590499</v>
+        <v>331.5763273563045</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1696,10 +1696,10 @@
         <v>2560</v>
       </c>
       <c r="G36" t="n">
-        <v>1.632075471698113</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="H36" t="n">
-        <v>222.5921322843952</v>
+        <v>222.0691542617187</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1731,10 +1731,10 @@
         <v>4942</v>
       </c>
       <c r="G37" t="n">
-        <v>4.78030303030303</v>
+        <v>4.796482412060302</v>
       </c>
       <c r="H37" t="n">
-        <v>432.232004878661</v>
+        <v>431.1429789523865</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>4942</v>
       </c>
       <c r="G38" t="n">
-        <v>4.78030303030303</v>
+        <v>4.796482412060302</v>
       </c>
       <c r="H38" t="n">
-        <v>432.232004878661</v>
+        <v>431.1429789523865</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>5613</v>
       </c>
       <c r="G39" t="n">
-        <v>8.074792243767313</v>
+        <v>8.038674033149171</v>
       </c>
       <c r="H39" t="n">
-        <v>479.5503535738495</v>
+        <v>478.8860442480257</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -1836,10 +1836,10 @@
         <v>20309</v>
       </c>
       <c r="G40" t="n">
-        <v>94.91363636363636</v>
+        <v>96.61711711711712</v>
       </c>
       <c r="H40" t="n">
-        <v>2090.512258735353</v>
+        <v>2081.212214696428</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>20309</v>
       </c>
       <c r="G41" t="n">
-        <v>94.91363636363636</v>
+        <v>96.61711711711712</v>
       </c>
       <c r="H41" t="n">
-        <v>2090.512258735353</v>
+        <v>2081.212214696428</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1906,10 +1906,10 @@
         <v>7905</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.96283185840708</v>
+        <v>-2.812389380530973</v>
       </c>
       <c r="H42" t="n">
-        <v>1339.708265995915</v>
+        <v>1339.707396412462</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -1941,10 +1941,10 @@
         <v>29180</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.96283185840708</v>
+        <v>-2.812389380530973</v>
       </c>
       <c r="H43" t="n">
-        <v>1339.708265995915</v>
+        <v>1339.707396412462</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -1976,10 +1976,10 @@
         <v>2105</v>
       </c>
       <c r="G44" t="n">
-        <v>20.8792270531401</v>
+        <v>21.01449275362319</v>
       </c>
       <c r="H44" t="n">
-        <v>388.3019292454137</v>
+        <v>388.2974972760992</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2011,10 +2011,10 @@
         <v>2105</v>
       </c>
       <c r="G45" t="n">
-        <v>20.8792270531401</v>
+        <v>21.01449275362319</v>
       </c>
       <c r="H45" t="n">
-        <v>388.3019292454137</v>
+        <v>388.2974972760992</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2046,10 +2046,10 @@
         <v>6477</v>
       </c>
       <c r="G46" t="n">
-        <v>14.77758007117438</v>
+        <v>14.80496453900709</v>
       </c>
       <c r="H46" t="n">
-        <v>644.4373732034007</v>
+        <v>643.2945820266408</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -2081,10 +2081,10 @@
         <v>7409</v>
       </c>
       <c r="G47" t="n">
-        <v>14.77758007117438</v>
+        <v>14.80496453900709</v>
       </c>
       <c r="H47" t="n">
-        <v>644.4373732034007</v>
+        <v>643.2945820266408</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2116,10 +2116,10 @@
         <v>7409</v>
       </c>
       <c r="G48" t="n">
-        <v>14.77758007117438</v>
+        <v>14.80496453900709</v>
       </c>
       <c r="H48" t="n">
-        <v>644.4373732034007</v>
+        <v>643.2945820266408</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2151,10 +2151,10 @@
         <v>3971</v>
       </c>
       <c r="G49" t="n">
-        <v>14.50847457627119</v>
+        <v>14</v>
       </c>
       <c r="H49" t="n">
-        <v>666.65713601214</v>
+        <v>660.9950895994435</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2256,10 +2256,10 @@
         <v>6875</v>
       </c>
       <c r="G52" t="n">
-        <v>36.68859649122807</v>
+        <v>36.1</v>
       </c>
       <c r="H52" t="n">
-        <v>774.8859426951606</v>
+        <v>771.5220840655654</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -2291,10 +2291,10 @@
         <v>6875</v>
       </c>
       <c r="G53" t="n">
-        <v>36.68859649122807</v>
+        <v>36.1</v>
       </c>
       <c r="H53" t="n">
-        <v>774.8859426951606</v>
+        <v>771.5220840655654</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2383,23 +2383,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1391</v>
+        <v>2265</v>
       </c>
       <c r="F56" t="n">
-        <v>695</v>
+        <v>2265</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4542190305206463</v>
+        <v>1.483126110124334</v>
       </c>
       <c r="H56" t="n">
-        <v>157.2676433959828</v>
+        <v>158.1732494766309</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -2408,33 +2408,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>精金</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1391</v>
+        <v>646</v>
       </c>
       <c r="F57" t="n">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4542190305206463</v>
+        <v>-0.1391752577319588</v>
       </c>
       <c r="H57" t="n">
-        <v>157.2676433959828</v>
+        <v>62.84792247084839</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2443,33 +2443,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>精金</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2265</v>
+        <v>469</v>
       </c>
       <c r="F58" t="n">
-        <v>2265</v>
+        <v>469</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4542190305206463</v>
+        <v>-0.1391752577319588</v>
       </c>
       <c r="H58" t="n">
-        <v>157.2676433959828</v>
+        <v>62.84792247084839</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -2478,33 +2478,33 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>千如</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>永豐金-信義</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>646</v>
+        <v>268</v>
       </c>
       <c r="F59" t="n">
-        <v>646</v>
+        <v>268</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H59" t="n">
-        <v>62.69148810175405</v>
+        <v>36.35171051192579</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2513,33 +2513,33 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>469</v>
+        <v>3070</v>
       </c>
       <c r="F60" t="n">
-        <v>469</v>
+        <v>3070</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2</v>
+        <v>6.042316258351893</v>
       </c>
       <c r="H60" t="n">
-        <v>62.69148810175405</v>
+        <v>180.8603459114087</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2548,33 +2548,33 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>千如</t>
+          <t>寶德</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>永豐金-信義</t>
+          <t>華南永昌</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E61" t="n">
-        <v>268</v>
+        <v>488</v>
       </c>
       <c r="F61" t="n">
-        <v>268</v>
+        <v>419</v>
       </c>
       <c r="G61" t="n">
-        <v>1.05511811023622</v>
+        <v>10.26923076923077</v>
       </c>
       <c r="H61" t="n">
-        <v>36.14703375097154</v>
+        <v>103.9848287750892</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -2583,33 +2583,33 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>漢科</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>富邦-陽明</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>3070</v>
+        <v>393</v>
       </c>
       <c r="F62" t="n">
-        <v>3070</v>
+        <v>393</v>
       </c>
       <c r="G62" t="n">
-        <v>6.607623318385651</v>
+        <v>-2.595419847328244</v>
       </c>
       <c r="H62" t="n">
-        <v>181.2470183192527</v>
+        <v>45.47252401614952</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2618,33 +2618,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>寶德</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>華南永昌</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="F63" t="n">
-        <v>419</v>
+        <v>261</v>
       </c>
       <c r="G63" t="n">
-        <v>10.26923076923077</v>
+        <v>11.37142857142857</v>
       </c>
       <c r="H63" t="n">
-        <v>103.9848287750892</v>
+        <v>65.03487105992841</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2653,33 +2653,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>漢科</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>富邦-陽明</t>
+          <t>富邦證券</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>393</v>
+        <v>261</v>
       </c>
       <c r="F64" t="n">
-        <v>393</v>
+        <v>261</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.333333333333333</v>
+        <v>11.37142857142857</v>
       </c>
       <c r="H64" t="n">
-        <v>45.90995489361031</v>
+        <v>65.03487105992841</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -2688,33 +2688,33 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>由田</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>富邦</t>
+          <t>凱基-信義</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>261</v>
+        <v>500</v>
       </c>
       <c r="F65" t="n">
-        <v>261</v>
+        <v>500</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>0.4014084507042254</v>
       </c>
       <c r="H65" t="n">
-        <v>66.96034274105831</v>
+        <v>58.1056826189326</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -2723,33 +2723,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>聯穎</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>富邦證券</t>
+          <t>合庫</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="F66" t="n">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>4.410628019323672</v>
       </c>
       <c r="H66" t="n">
-        <v>66.96034274105831</v>
+        <v>58.24480045206408</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2758,33 +2758,33 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>由田</t>
+          <t>聯穎</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>凱基-信義</t>
+          <t>合庫證券</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8428571428571429</v>
+        <v>4.410628019323672</v>
       </c>
       <c r="H67" t="n">
-        <v>58.71480533799567</v>
+        <v>58.24480045206408</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -2793,33 +2793,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>聯穎</t>
+          <t>大聯大</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>合庫</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>412</v>
+        <v>1844</v>
       </c>
       <c r="F68" t="n">
-        <v>412</v>
+        <v>1844</v>
       </c>
       <c r="G68" t="n">
-        <v>4.951456310679611</v>
+        <v>7.73394495412844</v>
       </c>
       <c r="H68" t="n">
-        <v>57.9033473299701</v>
+        <v>232.6406077855223</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -2828,33 +2828,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>聯穎</t>
+          <t>神達</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>合庫證券</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>412</v>
+        <v>3977</v>
       </c>
       <c r="F69" t="n">
-        <v>412</v>
+        <v>3977</v>
       </c>
       <c r="G69" t="n">
-        <v>4.951456310679611</v>
+        <v>0.4236947791164659</v>
       </c>
       <c r="H69" t="n">
-        <v>57.9033473299701</v>
+        <v>218.0546864400627</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -2863,33 +2863,33 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>大聯大</t>
+          <t>瑞智</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>元大-新盛</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="E70" t="n">
-        <v>1844</v>
+        <v>1200</v>
       </c>
       <c r="F70" t="n">
-        <v>1844</v>
+        <v>932</v>
       </c>
       <c r="G70" t="n">
-        <v>8.577981651376147</v>
+        <v>7.979591836734694</v>
       </c>
       <c r="H70" t="n">
-        <v>232.1235684580424</v>
+        <v>179.4571083615709</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -2898,33 +2898,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>神達</t>
+          <t>致伸</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>凱基</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>3977</v>
+        <v>1334</v>
       </c>
       <c r="F71" t="n">
-        <v>3977</v>
+        <v>1334</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6277665995975855</v>
+        <v>26.45454545454545</v>
       </c>
       <c r="H71" t="n">
-        <v>218.2557602647679</v>
+        <v>250.7610503589111</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -2933,33 +2933,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>瑞智</t>
+          <t>工信</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>元大-新盛</t>
+          <t>兆豐-天母</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>268</v>
+        <v>-712</v>
       </c>
       <c r="E72" t="n">
-        <v>1200</v>
+        <v>703</v>
       </c>
       <c r="F72" t="n">
-        <v>932</v>
+        <v>1415</v>
       </c>
       <c r="G72" t="n">
-        <v>7.979591836734694</v>
+        <v>3.130111524163569</v>
       </c>
       <c r="H72" t="n">
-        <v>179.4571083615709</v>
+        <v>102.000227650036</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -2968,12 +2968,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>致伸</t>
+          <t>工信</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2982,19 +2982,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="E73" t="n">
-        <v>1334</v>
+        <v>909</v>
       </c>
       <c r="F73" t="n">
-        <v>1334</v>
+        <v>667</v>
       </c>
       <c r="G73" t="n">
-        <v>26.45454545454545</v>
+        <v>3.130111524163569</v>
       </c>
       <c r="H73" t="n">
-        <v>250.7610503589111</v>
+        <v>102.000227650036</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3003,33 +3003,33 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>工信</t>
+          <t>聖暉*</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>兆豐-天母</t>
+          <t>元富</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-712</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>703</v>
+        <v>307</v>
       </c>
       <c r="F74" t="n">
-        <v>1415</v>
+        <v>307</v>
       </c>
       <c r="G74" t="n">
-        <v>3.130111524163569</v>
+        <v>11.5</v>
       </c>
       <c r="H74" t="n">
-        <v>102.000227650036</v>
+        <v>62.21141374378178</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3038,33 +3038,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>工信</t>
+          <t>四維航</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>凱基</t>
+          <t>美好-中壢</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>909</v>
+        <v>432</v>
       </c>
       <c r="F75" t="n">
-        <v>667</v>
+        <v>432</v>
       </c>
       <c r="G75" t="n">
-        <v>3.130111524163569</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="H75" t="n">
-        <v>102.000227650036</v>
+        <v>62.25043681065123</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3073,33 +3073,33 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>6182</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>聖暉*</t>
+          <t>合晶</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>元富</t>
+          <t>兆豐-西螺</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="F76" t="n">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G76" t="n">
-        <v>11.5</v>
+        <v>1.403508771929824</v>
       </c>
       <c r="H76" t="n">
-        <v>62.21141374378178</v>
+        <v>43.48949554674343</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3108,33 +3108,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>6188</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>四維航</t>
+          <t>廣明</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美好-中壢</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="E77" t="n">
-        <v>432</v>
+        <v>1495</v>
       </c>
       <c r="F77" t="n">
-        <v>432</v>
+        <v>1286</v>
       </c>
       <c r="G77" t="n">
-        <v>7.214285714285714</v>
+        <v>6.763636363636364</v>
       </c>
       <c r="H77" t="n">
-        <v>62.25043681065123</v>
+        <v>162.2911261608351</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3143,33 +3143,33 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>6188</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>合晶</t>
+          <t>廣明</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>兆豐-西螺</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="E78" t="n">
-        <v>280</v>
+        <v>1495</v>
       </c>
       <c r="F78" t="n">
-        <v>280</v>
+        <v>1286</v>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>6.763636363636364</v>
       </c>
       <c r="H78" t="n">
-        <v>43.57655305702092</v>
+        <v>162.2911261608351</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3178,33 +3178,33 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6188</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>廣明</t>
+          <t>方土昶</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>國票-敦北法人</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>209</v>
+        <v>605</v>
       </c>
       <c r="E79" t="n">
-        <v>1495</v>
+        <v>874</v>
       </c>
       <c r="F79" t="n">
-        <v>1286</v>
+        <v>269</v>
       </c>
       <c r="G79" t="n">
-        <v>6.8</v>
+        <v>0.1441647597254005</v>
       </c>
       <c r="H79" t="n">
-        <v>162.2871236490533</v>
+        <v>61.60587808582133</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -3213,33 +3213,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6188</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>廣明</t>
+          <t>方土昶</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>統一-城中</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>209</v>
+        <v>-115</v>
       </c>
       <c r="E80" t="n">
-        <v>1495</v>
+        <v>604</v>
       </c>
       <c r="F80" t="n">
-        <v>1286</v>
+        <v>719</v>
       </c>
       <c r="G80" t="n">
-        <v>6.8</v>
+        <v>0.1441647597254005</v>
       </c>
       <c r="H80" t="n">
-        <v>162.2871236490533</v>
+        <v>61.60587808582133</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -3248,33 +3248,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6461</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>方土昶</t>
+          <t>益得</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>國票-敦北法人</t>
+          <t>凱基-城中</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>874</v>
+        <v>435</v>
       </c>
       <c r="F81" t="n">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2528735632183908</v>
+        <v>9.703703703703704</v>
       </c>
       <c r="H81" t="n">
-        <v>61.74811670681797</v>
+        <v>88.59319943288529</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3283,33 +3283,33 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6548</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>方土昶</t>
+          <t>長科*</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>統一-城中</t>
+          <t>元富</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>604</v>
+        <v>2388</v>
       </c>
       <c r="F82" t="n">
-        <v>719</v>
+        <v>2388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.6986607142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>61.74811670681797</v>
+        <v>129.2138708797647</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3318,33 +3318,33 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6461</t>
+          <t>6548</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>益得</t>
+          <t>長科*</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>凱基-城中</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="E83" t="n">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="F83" t="n">
-        <v>435</v>
+        <v>785</v>
       </c>
       <c r="G83" t="n">
-        <v>12.625</v>
+        <v>0.6986607142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>93.41343935523365</v>
+        <v>129.2138708797647</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -3353,33 +3353,33 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6548</t>
+          <t>8069</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>長科*</t>
+          <t>元太</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>元富</t>
+          <t>兆豐</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>2388</v>
+        <v>3389</v>
       </c>
       <c r="F84" t="n">
-        <v>2388</v>
+        <v>3369</v>
       </c>
       <c r="G84" t="n">
-        <v>1.042696629213483</v>
+        <v>55.47252747252747</v>
       </c>
       <c r="H84" t="n">
-        <v>129.3139746073404</v>
+        <v>517.4931742042452</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3388,33 +3388,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6548</t>
+          <t>8069</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>長科*</t>
+          <t>元太</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>兆豐證券</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-291</v>
+        <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>494</v>
+        <v>3389</v>
       </c>
       <c r="F85" t="n">
-        <v>785</v>
+        <v>3369</v>
       </c>
       <c r="G85" t="n">
-        <v>1.042696629213483</v>
+        <v>55.47252747252747</v>
       </c>
       <c r="H85" t="n">
-        <v>129.3139746073404</v>
+        <v>517.4931742042452</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -3423,33 +3423,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8069</t>
+          <t>8111</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>元太</t>
+          <t>立��</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>兆豐</t>
+          <t>國票-台南</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>3389</v>
+        <v>275</v>
       </c>
       <c r="F86" t="n">
-        <v>3369</v>
+        <v>275</v>
       </c>
       <c r="G86" t="n">
-        <v>56.24444444444445</v>
+        <v>1.329787234042553</v>
       </c>
       <c r="H86" t="n">
-        <v>520.3396321960855</v>
+        <v>33.97892715017389</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -3458,33 +3458,33 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8069</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>元太</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>兆豐證券</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>3389</v>
+        <v>342</v>
       </c>
       <c r="F87" t="n">
-        <v>3369</v>
+        <v>342</v>
       </c>
       <c r="G87" t="n">
-        <v>56.24444444444445</v>
+        <v>-0.2827586206896552</v>
       </c>
       <c r="H87" t="n">
-        <v>520.3396321960855</v>
+        <v>71.72417299862833</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -3493,33 +3493,33 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8111</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>立��</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>國票-台南</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F88" t="n">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G88" t="n">
-        <v>1.329787234042553</v>
+        <v>-0.2827586206896552</v>
       </c>
       <c r="H88" t="n">
-        <v>33.97892715017389</v>
+        <v>71.72417299862833</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -3538,23 +3538,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F89" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03472222222222222</v>
+        <v>-0.2827586206896552</v>
       </c>
       <c r="H89" t="n">
-        <v>71.90411381234792</v>
+        <v>71.72417299862833</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -3563,33 +3563,33 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>8935</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>邦泰</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>康和-高雄</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="F90" t="n">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03472222222222222</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>71.90411381234792</v>
+        <v>70.12132343303284</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -3598,33 +3598,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>9136</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>巨騰-DR</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>兆豐-三民</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E91" t="n">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="F91" t="n">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03472222222222222</v>
+        <v>1.46875</v>
       </c>
       <c r="H91" t="n">
-        <v>71.90411381234792</v>
+        <v>102.4942845870728</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -3633,33 +3633,33 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8935</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>邦泰</t>
+          <t>豐泰</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>康和-高雄</t>
+          <t>新光</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>208</v>
+        <v>1444</v>
       </c>
       <c r="F92" t="n">
-        <v>208</v>
+        <v>1444</v>
       </c>
       <c r="G92" t="n">
-        <v>21.33333333333333</v>
+        <v>32.36842105263158</v>
       </c>
       <c r="H92" t="n">
-        <v>70.12132343303284</v>
+        <v>353.2478214962024</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -3668,105 +3668,35 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>9136</t>
+          <t>9914</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>巨騰-DR</t>
+          <t>美利達</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>兆豐-三民</t>
+          <t>凱基</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="F93" t="n">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="G93" t="n">
-        <v>1.46875</v>
+        <v>16.6</v>
       </c>
       <c r="H93" t="n">
-        <v>102.4942845870728</v>
+        <v>83.55391757935197</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>9910</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>豐泰</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>新光</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1444</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1444</v>
-      </c>
-      <c r="G94" t="n">
-        <v>32.36842105263158</v>
-      </c>
-      <c r="H94" t="n">
-        <v>353.2478214962024</v>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>9914</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>美利達</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>凱基</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>310</v>
-      </c>
-      <c r="F95" t="n">
-        <v>310</v>
-      </c>
-      <c r="G95" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H95" t="n">
-        <v>83.55391757935197</v>
-      </c>
-      <c r="I95" t="b">
         <v>1</v>
       </c>
     </row>
